--- a/robotcontrol/RobotPositions.xlsx
+++ b/robotcontrol/RobotPositions.xlsx
@@ -1619,8 +1619,8 @@
       <c r="G11" t="s" s="11">
         <v>18</v>
       </c>
-      <c r="H11" t="s" s="11">
-        <v>18</v>
+      <c r="H11" s="10">
+        <v>275</v>
       </c>
     </row>
     <row r="12" ht="20.35" customHeight="1">
@@ -1643,8 +1643,8 @@
       <c r="G12" t="s" s="11">
         <v>18</v>
       </c>
-      <c r="H12" t="s" s="11">
-        <v>18</v>
+      <c r="H12" s="10">
+        <v>425</v>
       </c>
     </row>
     <row r="13" ht="20.35" customHeight="1">

--- a/robotcontrol/RobotPositions.xlsx
+++ b/robotcontrol/RobotPositions.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>Table 1</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>grip_open</t>
-  </si>
-  <si>
-    <t>*</t>
   </si>
   <si>
     <t>grip_closed</t>
@@ -241,7 +238,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -273,9 +270,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1604,54 +1598,34 @@
         <v>17</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" t="s" s="11">
-        <v>18</v>
-      </c>
-      <c r="D11" t="s" s="11">
-        <v>18</v>
-      </c>
-      <c r="E11" t="s" s="11">
-        <v>18</v>
-      </c>
-      <c r="F11" t="s" s="11">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s" s="11">
-        <v>18</v>
-      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
       <c r="H11" s="10">
         <v>275</v>
       </c>
     </row>
     <row r="12" ht="20.35" customHeight="1">
       <c r="A12" t="s" s="7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" t="s" s="11">
-        <v>18</v>
-      </c>
-      <c r="D12" t="s" s="11">
-        <v>18</v>
-      </c>
-      <c r="E12" t="s" s="11">
-        <v>18</v>
-      </c>
-      <c r="F12" t="s" s="11">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s" s="11">
-        <v>18</v>
-      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
       <c r="H12" s="10">
         <v>425</v>
       </c>
     </row>
     <row r="13" ht="20.35" customHeight="1">
       <c r="A13" t="s" s="7">
-        <v>20</v>
-      </c>
-      <c r="B13" s="12">
+        <v>19</v>
+      </c>
+      <c r="B13" s="11">
         <v>1</v>
       </c>
       <c r="C13" s="10">
@@ -1674,7 +1648,7 @@
       </c>
     </row>
     <row r="14" ht="20.35" customHeight="1">
-      <c r="A14" s="13"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -1684,7 +1658,7 @@
       <c r="H14" s="9"/>
     </row>
     <row r="15" ht="20.35" customHeight="1">
-      <c r="A15" s="13"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -1694,7 +1668,7 @@
       <c r="H15" s="9"/>
     </row>
     <row r="16" ht="20.35" customHeight="1">
-      <c r="A16" s="13"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -1704,7 +1678,7 @@
       <c r="H16" s="9"/>
     </row>
     <row r="17" ht="20.35" customHeight="1">
-      <c r="A17" s="13"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -1714,7 +1688,7 @@
       <c r="H17" s="9"/>
     </row>
     <row r="18" ht="20.35" customHeight="1">
-      <c r="A18" s="13"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -1724,7 +1698,7 @@
       <c r="H18" s="9"/>
     </row>
     <row r="19" ht="20.35" customHeight="1">
-      <c r="A19" s="13"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>

--- a/robotcontrol/RobotPositions.xlsx
+++ b/robotcontrol/RobotPositions.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
   <si>
     <t>Table 1</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>safety</t>
+  </si>
+  <si>
+    <t>rest</t>
   </si>
 </sst>
 </file>
@@ -1648,11 +1651,19 @@
       </c>
     </row>
     <row r="14" ht="20.35" customHeight="1">
-      <c r="A14" s="12"/>
+      <c r="A14" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+      <c r="C14" s="10">
+        <v>500</v>
+      </c>
+      <c r="D14" s="10">
+        <v>150</v>
+      </c>
+      <c r="E14" s="10">
+        <v>340</v>
+      </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>

--- a/robotcontrol/RobotPositions.xlsx
+++ b/robotcontrol/RobotPositions.xlsx
@@ -6,16 +6,14 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Teachpoints" sheetId="1" r:id="rId4"/>
+    <sheet name="Sequences" sheetId="2" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
-  <si>
-    <t>Table 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>Position</t>
   </si>
@@ -75,6 +73,30 @@
   </si>
   <si>
     <t>rest</t>
+  </si>
+  <si>
+    <t>sequence</t>
+  </si>
+  <si>
+    <t>teachpoints</t>
+  </si>
+  <si>
+    <t>delays</t>
+  </si>
+  <si>
+    <t>loop</t>
+  </si>
+  <si>
+    <t>Pick_Place_cups</t>
+  </si>
+  <si>
+    <t>safety, left_pick_hover, left_pick, grip_closed, left_pick_hover, right_pick_hover, grip_open, right_pick</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,1,1</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -241,15 +263,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
@@ -279,6 +298,18 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1395,10 +1426,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:H19"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1414,315 +1445,410 @@
     <col min="9" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28" customHeight="1">
+    <row r="1" ht="20.55" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" ht="20.55" customHeight="1">
       <c r="A2" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" ht="20.35" customHeight="1">
+      <c r="A3" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" ht="20.35" customHeight="1">
+      <c r="A4" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="9">
+        <v>400</v>
+      </c>
+      <c r="D4" s="9">
+        <v>300</v>
+      </c>
+      <c r="E4" s="9">
+        <v>450</v>
+      </c>
+      <c r="F4" s="9">
+        <v>525</v>
+      </c>
+      <c r="G4" s="9">
+        <v>340</v>
+      </c>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" ht="20.35" customHeight="1">
+      <c r="A5" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="9">
+        <v>400</v>
+      </c>
+      <c r="D5" s="9">
+        <v>400</v>
+      </c>
+      <c r="E5" s="9">
+        <v>450</v>
+      </c>
+      <c r="F5" s="9">
+        <v>610</v>
+      </c>
+      <c r="G5" s="9">
+        <v>340</v>
+      </c>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" ht="20.35" customHeight="1">
+      <c r="A6" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" ht="20.35" customHeight="1">
+      <c r="A7" t="s" s="6">
+        <v>13</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" ht="20.35" customHeight="1">
+      <c r="A8" t="s" s="6">
+        <v>14</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="9">
+        <v>500</v>
+      </c>
+      <c r="D8" s="9">
+        <v>300</v>
+      </c>
+      <c r="E8" s="9">
+        <v>450</v>
+      </c>
+      <c r="F8" s="9">
+        <v>525</v>
+      </c>
+      <c r="G8" s="9">
+        <v>340</v>
+      </c>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" ht="20.35" customHeight="1">
+      <c r="A9" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="9">
+        <v>500</v>
+      </c>
+      <c r="D9" s="9">
+        <v>400</v>
+      </c>
+      <c r="E9" s="9">
+        <v>450</v>
+      </c>
+      <c r="F9" s="9">
+        <v>610</v>
+      </c>
+      <c r="G9" s="9">
+        <v>340</v>
+      </c>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" ht="20.35" customHeight="1">
+      <c r="A10" t="s" s="6">
+        <v>16</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="11" ht="20.35" customHeight="1">
+      <c r="A11" t="s" s="6">
+        <v>17</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="12" ht="20.35" customHeight="1">
+      <c r="A12" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="B12" s="10">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s" s="3">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s" s="3">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s" s="3">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" ht="20.55" customHeight="1">
-      <c r="A3" t="s" s="4">
-        <v>9</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="C12" s="9">
+        <v>500</v>
+      </c>
+      <c r="D12" s="9">
+        <v>250</v>
+      </c>
+      <c r="E12" s="9">
+        <v>400</v>
+      </c>
+      <c r="F12" s="9">
+        <v>525</v>
+      </c>
+      <c r="G12" s="9">
+        <v>340</v>
+      </c>
+      <c r="H12" s="9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" ht="20.35" customHeight="1">
+      <c r="A13" t="s" s="6">
+        <v>19</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="9">
+        <v>500</v>
+      </c>
+      <c r="D13" s="9">
+        <v>150</v>
+      </c>
+      <c r="E13" s="9">
+        <v>340</v>
+      </c>
+      <c r="F13" s="9">
+        <v>700</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" ht="20.35" customHeight="1">
+      <c r="A14" s="11"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" ht="20.35" customHeight="1">
+      <c r="A15" s="11"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" ht="20.35" customHeight="1">
+      <c r="A16" s="11"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" ht="20.35" customHeight="1">
+      <c r="A17" s="11"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" ht="20.35" customHeight="1">
+      <c r="A18" s="11"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="16.3516" style="12" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="12" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="12" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="12" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="12" customWidth="1"/>
+    <col min="6" max="256" width="16.3516" style="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20.55" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" ht="104.55" customHeight="1">
+      <c r="A2" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s" s="14">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" ht="20.35" customHeight="1">
+      <c r="A3" s="11"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" ht="20.35" customHeight="1">
-      <c r="A4" t="s" s="7">
-        <v>10</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="10">
-        <v>400</v>
-      </c>
-      <c r="D5" s="10">
-        <v>300</v>
-      </c>
-      <c r="E5" s="10">
-        <v>450</v>
-      </c>
-      <c r="F5" s="10">
-        <v>525</v>
-      </c>
-      <c r="G5" s="10">
-        <v>340</v>
-      </c>
-      <c r="H5" s="10">
-        <v>275</v>
-      </c>
+      <c r="A5" s="11"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="10">
-        <v>400</v>
-      </c>
-      <c r="D6" s="10">
-        <v>400</v>
-      </c>
-      <c r="E6" s="10">
-        <v>450</v>
-      </c>
-      <c r="F6" s="10">
-        <v>610</v>
-      </c>
-      <c r="G6" s="10">
-        <v>340</v>
-      </c>
-      <c r="H6" s="10">
-        <v>275</v>
-      </c>
+      <c r="A6" s="11"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="10">
-        <v>500</v>
-      </c>
-      <c r="D9" s="10">
-        <v>300</v>
-      </c>
-      <c r="E9" s="10">
-        <v>450</v>
-      </c>
-      <c r="F9" s="10">
-        <v>525</v>
-      </c>
-      <c r="G9" s="10">
-        <v>340</v>
-      </c>
-      <c r="H9" s="10">
-        <v>275</v>
-      </c>
+      <c r="A9" s="11"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="10">
-        <v>500</v>
-      </c>
-      <c r="D10" s="10">
-        <v>400</v>
-      </c>
-      <c r="E10" s="10">
-        <v>450</v>
-      </c>
-      <c r="F10" s="10">
-        <v>610</v>
-      </c>
-      <c r="G10" s="10">
-        <v>340</v>
-      </c>
-      <c r="H10" s="10">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="11" ht="20.35" customHeight="1">
-      <c r="A11" t="s" s="7">
-        <v>17</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="10">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="12" ht="20.35" customHeight="1">
-      <c r="A12" t="s" s="7">
-        <v>18</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="10">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="13" ht="20.35" customHeight="1">
-      <c r="A13" t="s" s="7">
-        <v>19</v>
-      </c>
-      <c r="B13" s="11">
-        <v>1</v>
-      </c>
-      <c r="C13" s="10">
-        <v>500</v>
-      </c>
-      <c r="D13" s="10">
-        <v>250</v>
-      </c>
-      <c r="E13" s="10">
-        <v>400</v>
-      </c>
-      <c r="F13" s="10">
-        <v>525</v>
-      </c>
-      <c r="G13" s="10">
-        <v>340</v>
-      </c>
-      <c r="H13" s="10">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="14" ht="20.35" customHeight="1">
-      <c r="A14" t="s" s="7">
-        <v>20</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="10">
-        <v>500</v>
-      </c>
-      <c r="D14" s="10">
-        <v>150</v>
-      </c>
-      <c r="E14" s="10">
-        <v>340</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" ht="20.35" customHeight="1">
-      <c r="A15" s="12"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-    </row>
-    <row r="16" ht="20.35" customHeight="1">
-      <c r="A16" s="12"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="17" ht="20.35" customHeight="1">
-      <c r="A17" s="12"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" ht="20.35" customHeight="1">
-      <c r="A18" s="12"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-    </row>
-    <row r="19" ht="20.35" customHeight="1">
-      <c r="A19" s="12"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>

--- a/robotcontrol/RobotPositions.xlsx
+++ b/robotcontrol/RobotPositions.xlsx
@@ -106,7 +106,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -118,13 +118,18 @@
       <name val="Helvetica"/>
     </font>
     <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
       <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,6 +148,12 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -263,53 +274,47 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -333,6 +338,7 @@
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ffffffff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -349,10 +355,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="404040"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="BFBFBF"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="499BC9"/>
@@ -546,14 +552,15 @@
   <a:objectDefaults>
     <a:spDef>
       <a:spPr>
-        <a:blipFill rotWithShape="1">
-          <a:blip r:embed="rId1"/>
-          <a:srcRect l="0" t="0" r="0" b="0"/>
-          <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
-        </a:blipFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst>
           <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
@@ -568,35 +575,29 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
-                <a:srgbClr val="000000">
-                  <a:alpha val="31034"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
@@ -849,14 +850,20 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="6350" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="50000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
         <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
@@ -1145,7 +1152,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1428,9 +1435,7 @@
   </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
@@ -1500,19 +1505,19 @@
         <v>10</v>
       </c>
       <c r="B4" s="7"/>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>400</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>300</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>450</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>525</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <v>340</v>
       </c>
       <c r="H4" s="8"/>
@@ -1522,19 +1527,19 @@
         <v>11</v>
       </c>
       <c r="B5" s="7"/>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>400</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>400</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>450</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>610</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>340</v>
       </c>
       <c r="H5" s="8"/>
@@ -1568,19 +1573,19 @@
         <v>14</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="9">
-        <v>500</v>
-      </c>
-      <c r="D8" s="9">
+      <c r="C8" s="8">
+        <v>575</v>
+      </c>
+      <c r="D8" s="8">
         <v>300</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>450</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <v>525</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <v>340</v>
       </c>
       <c r="H8" s="8"/>
@@ -1590,19 +1595,19 @@
         <v>15</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="9">
-        <v>500</v>
-      </c>
-      <c r="D9" s="9">
+      <c r="C9" s="8">
+        <v>575</v>
+      </c>
+      <c r="D9" s="8">
         <v>400</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>450</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <v>610</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>340</v>
       </c>
       <c r="H9" s="8"/>
@@ -1617,7 +1622,7 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
         <v>275</v>
       </c>
     </row>
@@ -1631,7 +1636,7 @@
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="9">
+      <c r="H11" s="8">
         <v>425</v>
       </c>
     </row>
@@ -1639,25 +1644,25 @@
       <c r="A12" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="7">
         <v>1</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>500</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>250</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>400</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <v>525</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="8">
         <v>340</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="8">
         <v>300</v>
       </c>
     </row>
@@ -1666,23 +1671,23 @@
         <v>19</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <v>500</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>150</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <v>340</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <v>700</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
     </row>
     <row r="14" ht="20.35" customHeight="1">
-      <c r="A14" s="11"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -1692,7 +1697,7 @@
       <c r="H14" s="8"/>
     </row>
     <row r="15" ht="20.35" customHeight="1">
-      <c r="A15" s="11"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -1702,7 +1707,7 @@
       <c r="H15" s="8"/>
     </row>
     <row r="16" ht="20.35" customHeight="1">
-      <c r="A16" s="11"/>
+      <c r="A16" s="9"/>
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -1712,7 +1717,7 @@
       <c r="H16" s="8"/>
     </row>
     <row r="17" ht="20.35" customHeight="1">
-      <c r="A17" s="11"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="7"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -1722,7 +1727,7 @@
       <c r="H17" s="8"/>
     </row>
     <row r="18" ht="20.35" customHeight="1">
-      <c r="A18" s="11"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="7"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -1747,18 +1752,16 @@
   </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="12" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="12" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="12" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="12" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="12" customWidth="1"/>
-    <col min="6" max="256" width="16.3516" style="12" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="10" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="10" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="10" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="10" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="10" customWidth="1"/>
+    <col min="6" max="256" width="16.3516" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.55" customHeight="1">
@@ -1774,74 +1777,74 @@
       <c r="D1" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="E1" s="13"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" ht="104.55" customHeight="1">
       <c r="A2" t="s" s="3">
         <v>24</v>
       </c>
-      <c r="B2" t="s" s="14">
+      <c r="B2" t="s" s="12">
         <v>25</v>
       </c>
-      <c r="C2" t="s" s="15">
+      <c r="C2" t="s" s="13">
         <v>26</v>
       </c>
-      <c r="D2" t="s" s="15">
+      <c r="D2" t="s" s="13">
         <v>27</v>
       </c>
       <c r="E2" s="5"/>
     </row>
     <row r="3" ht="20.35" customHeight="1">
-      <c r="A3" s="11"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="7"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
     <row r="4" ht="20.35" customHeight="1">
-      <c r="A4" s="11"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
     <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" s="11"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="7"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
     <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" s="11"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="7"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
     <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" s="11"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
     <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" s="11"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
     <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" s="11"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
     <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" s="11"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>

--- a/robotcontrol/RobotPositions.xlsx
+++ b/robotcontrol/RobotPositions.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>Position</t>
   </si>
@@ -39,7 +39,13 @@
     <t>s5</t>
   </si>
   <si>
-    <t>left_stage</t>
+    <t>right_dump</t>
+  </si>
+  <si>
+    <t>right_pick_hover</t>
+  </si>
+  <si>
+    <t>right_pick</t>
   </si>
   <si>
     <t>left_dump</t>
@@ -48,19 +54,10 @@
     <t>left_pick_hover</t>
   </si>
   <si>
+    <t>left_pick_stage</t>
+  </si>
+  <si>
     <t>left_pick</t>
-  </si>
-  <si>
-    <t>right_stage</t>
-  </si>
-  <si>
-    <t>right_dump</t>
-  </si>
-  <si>
-    <t>right_pick_hover</t>
-  </si>
-  <si>
-    <t>right_pick</t>
   </si>
   <si>
     <t>grip_open</t>
@@ -144,7 +141,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="12"/>
+        <fgColor indexed="11"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -174,7 +171,7 @@
         <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -183,10 +180,10 @@
         <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -195,13 +192,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </left>
       <right style="thin">
         <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -216,10 +213,10 @@
         <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
@@ -228,10 +225,10 @@
         <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="12"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -240,13 +237,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </left>
       <right style="thin">
         <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="12"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -261,7 +258,7 @@
         <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="12"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -290,31 +287,31 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -336,8 +333,8 @@
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="ffdbdbdb"/>
       <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
       <rgbColor rgb="ffffffff"/>
     </indexedColors>
   </colors>
@@ -1433,7 +1430,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1476,7 +1473,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="20.55" customHeight="1">
+    <row r="2" ht="20.35" customHeight="1">
       <c r="A2" t="s" s="3">
         <v>8</v>
       </c>
@@ -1489,252 +1486,242 @@
       <c r="H2" s="5"/>
     </row>
     <row r="3" ht="20.35" customHeight="1">
-      <c r="A3" t="s" s="6">
+      <c r="A3" t="s" s="3">
         <v>9</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5">
+        <v>400</v>
+      </c>
+      <c r="D3" s="5">
+        <v>300</v>
+      </c>
+      <c r="E3" s="5">
+        <v>450</v>
+      </c>
+      <c r="F3" s="5">
+        <v>525</v>
+      </c>
+      <c r="G3" s="5">
+        <v>340</v>
+      </c>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" ht="20.35" customHeight="1">
-      <c r="A4" t="s" s="6">
+      <c r="A4" t="s" s="3">
         <v>10</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5">
         <v>400</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="5">
+        <v>400</v>
+      </c>
+      <c r="E4" s="5">
+        <v>450</v>
+      </c>
+      <c r="F4" s="5">
+        <v>610</v>
+      </c>
+      <c r="G4" s="5">
+        <v>340</v>
+      </c>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" ht="20.35" customHeight="1">
+      <c r="A5" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" ht="20.35" customHeight="1">
+      <c r="A6" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5">
+        <v>575</v>
+      </c>
+      <c r="D6" s="5">
         <v>300</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E6" s="5">
         <v>450</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F6" s="5">
         <v>525</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G6" s="5">
         <v>340</v>
       </c>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8">
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" ht="20.35" customHeight="1">
+      <c r="A7" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5">
+        <v>575</v>
+      </c>
+      <c r="D7" s="5">
         <v>400</v>
       </c>
-      <c r="D5" s="8">
+      <c r="E7" s="5">
+        <v>450</v>
+      </c>
+      <c r="F7" s="5">
+        <v>610</v>
+      </c>
+      <c r="G7" s="5">
+        <v>340</v>
+      </c>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" ht="20.35" customHeight="1">
+      <c r="A8" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5">
+        <v>575</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" ht="20.35" customHeight="1">
+      <c r="A9" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="10" ht="20.35" customHeight="1">
+      <c r="A10" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="11" ht="20.35" customHeight="1">
+      <c r="A11" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
+        <v>500</v>
+      </c>
+      <c r="D11" s="5">
+        <v>250</v>
+      </c>
+      <c r="E11" s="5">
         <v>400</v>
       </c>
-      <c r="E5" s="8">
-        <v>450</v>
-      </c>
-      <c r="F5" s="8">
-        <v>610</v>
-      </c>
-      <c r="G5" s="8">
+      <c r="F11" s="5">
+        <v>525</v>
+      </c>
+      <c r="G11" s="5">
         <v>340</v>
       </c>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" t="s" s="6">
-        <v>12</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" t="s" s="6">
-        <v>14</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8">
-        <v>575</v>
-      </c>
-      <c r="D8" s="8">
+      <c r="H11" s="5">
         <v>300</v>
       </c>
-      <c r="E8" s="8">
-        <v>450</v>
-      </c>
-      <c r="F8" s="8">
-        <v>525</v>
-      </c>
-      <c r="G8" s="8">
+    </row>
+    <row r="12" ht="20.35" customHeight="1">
+      <c r="A12" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5">
+        <v>500</v>
+      </c>
+      <c r="D12" s="5">
+        <v>150</v>
+      </c>
+      <c r="E12" s="5">
         <v>340</v>
       </c>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" t="s" s="6">
-        <v>15</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8">
-        <v>575</v>
-      </c>
-      <c r="D9" s="8">
-        <v>400</v>
-      </c>
-      <c r="E9" s="8">
-        <v>450</v>
-      </c>
-      <c r="F9" s="8">
-        <v>610</v>
-      </c>
-      <c r="G9" s="8">
-        <v>340</v>
-      </c>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="11" ht="20.35" customHeight="1">
-      <c r="A11" t="s" s="6">
-        <v>17</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="12" ht="20.35" customHeight="1">
-      <c r="A12" t="s" s="6">
-        <v>18</v>
-      </c>
-      <c r="B12" s="7">
-        <v>1</v>
-      </c>
-      <c r="C12" s="8">
-        <v>500</v>
-      </c>
-      <c r="D12" s="8">
-        <v>250</v>
-      </c>
-      <c r="E12" s="8">
-        <v>400</v>
-      </c>
-      <c r="F12" s="8">
-        <v>525</v>
-      </c>
-      <c r="G12" s="8">
-        <v>340</v>
-      </c>
-      <c r="H12" s="8">
-        <v>300</v>
-      </c>
+      <c r="F12" s="5">
+        <v>700</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" ht="20.35" customHeight="1">
-      <c r="A13" t="s" s="6">
-        <v>19</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8">
-        <v>500</v>
-      </c>
-      <c r="D13" s="8">
-        <v>150</v>
-      </c>
-      <c r="E13" s="8">
-        <v>340</v>
-      </c>
-      <c r="F13" s="8">
-        <v>700</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
     </row>
     <row r="14" ht="20.35" customHeight="1">
-      <c r="A14" s="9"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" ht="20.35" customHeight="1">
-      <c r="A15" s="9"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
     </row>
     <row r="16" ht="20.35" customHeight="1">
-      <c r="A16" s="9"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
     </row>
     <row r="17" ht="20.35" customHeight="1">
-      <c r="A17" s="9"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="18" ht="20.35" customHeight="1">
-      <c r="A18" s="9"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -1756,99 +1743,99 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="10" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="10" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="10" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="10" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="10" customWidth="1"/>
-    <col min="6" max="256" width="16.3516" style="10" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="7" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="7" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="7" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="7" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="7" customWidth="1"/>
+    <col min="6" max="256" width="16.3516" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.55" customHeight="1">
-      <c r="A1" t="s" s="2">
+      <c r="A1" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s" s="8">
         <v>20</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="C1" t="s" s="8">
         <v>21</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="D1" t="s" s="8">
         <v>22</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" ht="104.55" customHeight="1">
+      <c r="A2" t="s" s="10">
         <v>23</v>
       </c>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="2" ht="104.55" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="B2" t="s" s="11">
         <v>24</v>
       </c>
-      <c r="B2" t="s" s="12">
+      <c r="C2" t="s" s="12">
         <v>25</v>
       </c>
-      <c r="C2" t="s" s="13">
+      <c r="D2" t="s" s="12">
         <v>26</v>
       </c>
-      <c r="D2" t="s" s="13">
-        <v>27</v>
-      </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" ht="20.35" customHeight="1">
-      <c r="A3" s="9"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" ht="20.35" customHeight="1">
-      <c r="A4" s="9"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" s="9"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" s="9"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" s="9"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" s="9"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" s="9"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" s="9"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/robotcontrol/RobotPositions.xlsx
+++ b/robotcontrol/RobotPositions.xlsx
@@ -1593,9 +1593,15 @@
       <c r="C8" s="5">
         <v>575</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="D8" s="5">
+        <v>390</v>
+      </c>
+      <c r="E8" s="5">
+        <v>380</v>
+      </c>
+      <c r="F8" s="5">
+        <v>675</v>
+      </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>

--- a/robotcontrol/RobotPositions.xlsx
+++ b/robotcontrol/RobotPositions.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>Position</t>
   </si>
@@ -93,7 +93,10 @@
     <t>1,1,1,1,1,1,1,1</t>
   </si>
   <si>
-    <t>Yes</t>
+    <t>True</t>
+  </si>
+  <si>
+    <t>Spinmove</t>
   </si>
 </sst>
 </file>
@@ -152,7 +155,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -246,13 +249,43 @@
         <color indexed="12"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
       </left>
       <right style="thin">
         <color indexed="10"/>
@@ -271,7 +304,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -311,7 +344,16 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1782,16 +1824,24 @@
       <c r="C2" t="s" s="12">
         <v>25</v>
       </c>
-      <c r="D2" t="s" s="12">
+      <c r="D2" t="s" s="13">
         <v>26</v>
       </c>
-      <c r="E2" s="13"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" ht="20.35" customHeight="1">
-      <c r="A3" s="6"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="A3" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s" s="15">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s" s="13">
+        <v>25</v>
+      </c>
+      <c r="D3" t="b" s="16">
+        <v>0</v>
+      </c>
       <c r="E3" s="5"/>
     </row>
     <row r="4" ht="20.35" customHeight="1">

--- a/robotcontrol/RobotPositions.xlsx
+++ b/robotcontrol/RobotPositions.xlsx
@@ -1718,8 +1718,12 @@
       <c r="F12" s="5">
         <v>700</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="G12" s="5">
+        <v>340</v>
+      </c>
+      <c r="H12" s="5">
+        <v>300</v>
+      </c>
     </row>
     <row r="13" ht="20.35" customHeight="1">
       <c r="A13" s="6"/>
